--- a/Mifos Automation Excels/Client/5RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/5RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
